--- a/src/test/java/tests/Excels/manage.xlsx
+++ b/src/test/java/tests/Excels/manage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\NPB\src\test\java\NPB\tests\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\NPBWEB\src\test\java\tests\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4314E30-5E68-47E5-A052-BA802586DF5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BB5D23-186A-46A0-AF57-39D02D846AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31305" yWindow="930" windowWidth="22560" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="396" windowWidth="23040" windowHeight="11328" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPK_correctData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>nazwa</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Komentarz dla CC</t>
   </si>
   <si>
-    <t>Pon - pt</t>
-  </si>
-  <si>
     <t>Popularna</t>
   </si>
   <si>
@@ -86,13 +83,37 @@
   </si>
   <si>
     <t>kawa</t>
+  </si>
+  <si>
+    <t>PON-SOB</t>
+  </si>
+  <si>
+    <t>herbata</t>
+  </si>
+  <si>
+    <t>05:00</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kwotowy </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Luksusowa</t>
+  </si>
+  <si>
+    <t>PON-PIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +127,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,13 +156,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -463,10 +492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE3B68A-29F8-4346-B750-C66F26443586}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,16 +515,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
@@ -515,35 +544,63 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="1">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1">
         <v>200</v>
-      </c>
-      <c r="E2" s="1">
-        <v>50</v>
       </c>
       <c r="F2" s="1">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="H2" s="1">
         <v>240</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/tests/Excels/manage.xlsx
+++ b/src/test/java/tests/Excels/manage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\NPBWEB\src\test\java\tests\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BB5D23-186A-46A0-AF57-39D02D846AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4213504-67B7-40B4-9C2B-93E7CD05E617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="396" windowWidth="23040" windowHeight="11328" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="828" windowWidth="22860" windowHeight="11652" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPK_correctData" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>nazwa</t>
   </si>
   <si>
-    <t>cf</t>
-  </si>
-  <si>
-    <t>duzy mpk</t>
-  </si>
-  <si>
     <t>Limit kwotowy</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>Komentarz dla CC</t>
   </si>
   <si>
-    <t>Popularna</t>
-  </si>
-  <si>
     <t>Limit godzin od</t>
   </si>
   <si>
@@ -76,37 +67,28 @@
     <t>nic</t>
   </si>
   <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>kawa</t>
-  </si>
-  <si>
-    <t>PON-SOB</t>
-  </si>
-  <si>
-    <t>herbata</t>
-  </si>
-  <si>
-    <t>05:00</t>
-  </si>
-  <si>
-    <t>23:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">kwotowy </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Luksusowa</t>
-  </si>
-  <si>
     <t>PON-PIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new one </t>
+  </si>
+  <si>
+    <t>new5</t>
+  </si>
+  <si>
+    <t>Standardowa</t>
+  </si>
+  <si>
+    <t>nowy123</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>20:00</t>
   </si>
 </sst>
 </file>
@@ -447,7 +429,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,27 +444,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B2">
+        <v>260</v>
+      </c>
+      <c r="C2">
         <v>240</v>
       </c>
-      <c r="C2">
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -492,10 +474,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE3B68A-29F8-4346-B750-C66F26443586}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,31 +497,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -547,10 +529,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <v>50</v>
@@ -562,45 +544,17 @@
         <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1">
         <v>240</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
